--- a/2022/data/processed/SECOORA.xlsx
+++ b/2022/data/processed/SECOORA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2022\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC2E168-DA5E-43E8-8473-8825C50060B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB82D45A-FC92-4465-8FE5-1F63C5BD9D2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1426,10 +1426,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2020,33 +2020,33 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="C10" s="6">
+        <v>41029</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="F10" s="6">
-        <v>27.21</v>
+        <v>32.801600000000001</v>
       </c>
       <c r="G10" s="8">
-        <v>-82.82</v>
+        <v>-79.618799999999993</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="24">
-        <v>35989</v>
+        <v>54</v>
+      </c>
+      <c r="I10" s="26">
+        <v>38394</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>25</v>
@@ -2058,59 +2058,57 @@
         <v>55</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
+      </c>
+      <c r="C11" s="6">
+        <v>41065</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="F11" s="6">
-        <v>27.29</v>
+        <v>32.800600000000003</v>
       </c>
       <c r="G11" s="8">
-        <v>-82.63</v>
+        <v>-79.618700000000004</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="24">
-        <v>35989</v>
+        <v>54</v>
+      </c>
+      <c r="I11" s="26">
+        <v>44382</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>25</v>
@@ -2122,59 +2120,57 @@
         <v>55</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="C12" s="17">
+        <v>41066</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="F12" s="17">
-        <v>24.6172</v>
+        <v>32.536000000000001</v>
       </c>
       <c r="G12" s="19">
-        <v>-82.724299999999999</v>
+        <v>-79.656000000000006</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="25">
-        <v>37883</v>
+        <v>54</v>
+      </c>
+      <c r="I12" s="29">
+        <v>44637</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>25</v>
@@ -2183,88 +2179,88 @@
         <v>18</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="6">
-        <v>41029</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="6">
-        <v>32.801600000000001</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-79.618799999999993</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="17">
+        <v>41076</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="17">
+        <v>32.536470000000001</v>
+      </c>
+      <c r="G13" s="19">
+        <v>-79.658529999999999</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="26">
-        <v>38394</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="I13" s="29">
+        <v>44637</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="27"/>
+      <c r="M13" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="30"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
@@ -2279,28 +2275,28 @@
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C14" s="6">
-        <v>41065</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>90</v>
+        <v>41033</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F14" s="6">
-        <v>32.800600000000003</v>
+        <v>32.2789</v>
       </c>
       <c r="G14" s="8">
-        <v>-79.618700000000004</v>
+        <v>-80.410200000000003</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="I14" s="26">
-        <v>44382</v>
+        <v>38392</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>25</v>
@@ -2324,71 +2320,71 @@
         <v>87</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="17">
-        <v>41066</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="6">
+        <v>41038</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="17">
-        <v>32.536000000000001</v>
-      </c>
-      <c r="G15" s="19">
-        <v>-79.656000000000006</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="6">
+        <v>34.141599999999997</v>
+      </c>
+      <c r="G15" s="8">
+        <v>-77.719700000000003</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="29">
-        <v>44637</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="I15" s="26">
+        <v>38510</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="23" t="s">
+      <c r="M15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="13" t="s">
         <v>95</v>
       </c>
       <c r="S15" s="28"/>
@@ -2401,58 +2397,60 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="17">
-        <v>41076</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="17">
-        <v>32.536470000000001</v>
-      </c>
-      <c r="G16" s="19">
-        <v>-79.658529999999999</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="6">
+        <v>41037</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="6">
+        <v>33.987699999999997</v>
+      </c>
+      <c r="G16" s="8">
+        <v>-77.361699999999999</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="29">
-        <v>44637</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="I16" s="26">
+        <v>38509</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="30"/>
+      <c r="M16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="S16" s="28"/>
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
@@ -2462,35 +2460,35 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C17" s="6">
-        <v>41033</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>99</v>
+        <v>41064</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="6">
-        <v>32.2789</v>
+        <v>34.207999999999998</v>
       </c>
       <c r="G17" s="8">
-        <v>-80.410200000000003</v>
-      </c>
-      <c r="H17" s="5" t="s">
+        <v>-76.946100000000001</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I17" s="26">
-        <v>38392</v>
-      </c>
-      <c r="J17" s="10" t="s">
+        <v>42324</v>
+      </c>
+      <c r="J17" s="31" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -2514,55 +2512,57 @@
       <c r="Q17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
+      <c r="R17" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="135" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C18" s="6">
-        <v>41038</v>
+        <v>41159</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="F18" s="6">
-        <v>34.141599999999997</v>
+        <v>34.208300000000001</v>
       </c>
       <c r="G18" s="8">
-        <v>-77.719700000000003</v>
+        <v>-76.945800000000006</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="I18" s="26">
-        <v>38510</v>
+        <v>42217</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>55</v>
+      <c r="K18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>28</v>
@@ -2571,13 +2571,13 @@
         <v>87</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="S18" s="28"/>
       <c r="T18" s="28"/>
@@ -2588,33 +2588,33 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="135" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C19" s="6">
-        <v>41037</v>
+        <v>41110</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>117</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="F19" s="6">
-        <v>33.987699999999997</v>
+        <v>34.1419</v>
       </c>
       <c r="G19" s="8">
-        <v>-77.361699999999999</v>
+        <v>-77.715000000000003</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="I19" s="26">
-        <v>38509</v>
+        <v>39661</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>25</v>
@@ -2622,8 +2622,8 @@
       <c r="K19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>55</v>
+      <c r="L19" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>87</v>
@@ -2635,14 +2635,12 @@
         <v>87</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>95</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="R19" s="27"/>
       <c r="S19" s="28"/>
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
@@ -2652,35 +2650,35 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C20" s="6">
-        <v>41064</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>105</v>
+        <v>41024</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="6">
-        <v>34.207999999999998</v>
-      </c>
-      <c r="G20" s="8">
-        <v>-76.946100000000001</v>
-      </c>
-      <c r="H20" s="4" t="s">
+        <v>33.841900000000003</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-78.483699999999999</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>54</v>
       </c>
       <c r="I20" s="26">
-        <v>42324</v>
-      </c>
-      <c r="J20" s="31" t="s">
+        <v>38509</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -2704,9 +2702,7 @@
       <c r="Q20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="13" t="s">
-        <v>106</v>
-      </c>
+      <c r="R20" s="27"/>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
@@ -2716,45 +2712,45 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="165" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="6">
-        <v>41159</v>
+        <v>120</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="6">
-        <v>34.208300000000001</v>
-      </c>
-      <c r="G21" s="8">
-        <v>-76.945800000000006</v>
+        <v>33.840699999999998</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-78.483400000000003</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I21" s="26">
-        <v>42217</v>
+        <v>40990</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>26</v>
+      <c r="K21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>28</v>
@@ -2763,13 +2759,13 @@
         <v>87</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
@@ -2780,33 +2776,33 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
     </row>
-    <row r="22" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="105" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="6">
-        <v>41110</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>109</v>
+        <v>124</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F22" s="6">
-        <v>34.1419</v>
+        <v>33.994100000000003</v>
       </c>
       <c r="G22" s="8">
-        <v>-77.715000000000003</v>
+        <v>-77.352400000000003</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I22" s="26">
-        <v>39661</v>
+        <v>36631</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>25</v>
@@ -2814,8 +2810,8 @@
       <c r="K22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>26</v>
+      <c r="L22" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>87</v>
@@ -2827,12 +2823,14 @@
         <v>87</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R22" s="27"/>
+        <v>126</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="S22" s="28"/>
       <c r="T22" s="28"/>
       <c r="U22" s="28"/>
@@ -2847,38 +2845,36 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="6">
-        <v>41024</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="F23" s="6">
-        <v>33.841900000000003</v>
-      </c>
-      <c r="G23" s="6">
-        <v>-78.483699999999999</v>
+        <v>34.171199999999999</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-77.823400000000007</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I23" s="26">
-        <v>38509</v>
+        <v>44210</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="L23" s="32"/>
       <c r="M23" s="12" t="s">
         <v>87</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>87</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="R23" s="27"/>
       <c r="S23" s="28"/>
@@ -2904,43 +2900,41 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" ht="165" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F24" s="6">
-        <v>33.840699999999998</v>
-      </c>
-      <c r="G24" s="6">
-        <v>-78.483400000000003</v>
+        <v>34.090600000000002</v>
+      </c>
+      <c r="G24" s="8">
+        <v>-77.867900000000006</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I24" s="26">
-        <v>40990</v>
+        <v>44182</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="L24" s="32"/>
       <c r="M24" s="12" t="s">
         <v>87</v>
       </c>
@@ -2954,11 +2948,9 @@
         <v>87</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="R24" s="27"/>
       <c r="S24" s="28"/>
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
@@ -2968,244 +2960,246 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" ht="105" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="C25" s="6">
+        <v>41008</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F25" s="6">
-        <v>33.994100000000003</v>
+        <v>31.4</v>
       </c>
       <c r="G25" s="8">
-        <v>-77.352400000000003</v>
+        <v>-80.868099999999998</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I25" s="26">
-        <v>36631</v>
+        <v>38930</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>55</v>
+      <c r="K25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>126</v>
+        <v>144</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="165" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>157</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="F26" s="6">
-        <v>34.171199999999999</v>
-      </c>
-      <c r="G26" s="8">
-        <v>-77.823400000000007</v>
+        <v>27.224399999999999</v>
+      </c>
+      <c r="G26" s="6">
+        <v>-80.202299999999994</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="26">
-        <v>44210</v>
+        <v>54</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>87</v>
+      <c r="K26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
+        <v>163</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
     </row>
-    <row r="27" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="135" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>131</v>
+        <v>170</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="F27" s="6">
-        <v>34.090600000000002</v>
-      </c>
-      <c r="G27" s="8">
-        <v>-77.867900000000006</v>
+        <v>27.5901</v>
+      </c>
+      <c r="G27" s="6">
+        <v>-80.3553</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="26">
-        <v>44182</v>
+        <v>54</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>87</v>
+      <c r="K27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
+        <v>168</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="1:26" ht="120" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:26" ht="165" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="6">
-        <v>41008</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>139</v>
+        <v>173</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="F28" s="6">
-        <v>31.4</v>
-      </c>
-      <c r="G28" s="8">
-        <v>-80.868099999999998</v>
+        <v>27.534800000000001</v>
+      </c>
+      <c r="G28" s="6">
+        <v>-80.343100000000007</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="26">
-        <v>38930</v>
+      <c r="I28" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>141</v>
+        <v>41</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>145</v>
+        <v>28</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -3216,65 +3210,65 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="135" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="10">
-        <v>32.753340000000001</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-79.898979999999995</v>
+        <v>178</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="6">
+        <v>27.4756</v>
+      </c>
+      <c r="G29" s="6">
+        <v>-80.326599999999999</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="26">
-        <v>44034</v>
+        <v>54</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L29" s="16" t="s">
+      <c r="K29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>151</v>
+      <c r="M29" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
+        <v>179</v>
+      </c>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
@@ -3283,20 +3277,20 @@
         <v>18</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>159</v>
       </c>
       <c r="F30" s="6">
-        <v>27.224399999999999</v>
+        <v>27.164899999999999</v>
       </c>
       <c r="G30" s="6">
-        <v>-80.202299999999994</v>
+        <v>-80.171800000000005</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>54</v>
@@ -3329,36 +3323,36 @@
         <v>163</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
+        <v>182</v>
+      </c>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="165" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F31" s="6">
-        <v>27.839099999999998</v>
+        <v>27.21</v>
       </c>
       <c r="G31" s="6">
-        <v>-80.470799999999997</v>
+        <v>-80.269199999999998</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>54</v>
@@ -3370,7 +3364,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>41</v>
@@ -3388,10 +3382,10 @@
         <v>162</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
@@ -3402,25 +3396,25 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="165" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F32" s="6">
-        <v>27.5901</v>
+        <v>27.187799999999999</v>
       </c>
       <c r="G32" s="6">
-        <v>-80.3553</v>
+        <v>-80.264200000000002</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>54</v>
@@ -3432,7 +3426,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>41</v>
@@ -3450,17 +3444,17 @@
         <v>162</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
+        <v>189</v>
+      </c>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
@@ -3469,20 +3463,20 @@
         <v>18</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F33" s="6">
-        <v>27.534800000000001</v>
+        <v>27.2089</v>
       </c>
       <c r="G33" s="6">
-        <v>-80.343100000000007</v>
+        <v>-80.248000000000005</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>54</v>
@@ -3494,7 +3488,7 @@
         <v>25</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>41</v>
@@ -3515,36 +3509,36 @@
         <v>163</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
+        <v>192</v>
+      </c>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F34" s="6">
-        <v>27.4756</v>
+        <v>27.1142</v>
       </c>
       <c r="G34" s="6">
-        <v>-80.326599999999999</v>
+        <v>-80.282899999999998</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>54</v>
@@ -3574,73 +3568,73 @@
         <v>162</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
     </row>
-    <row r="35" spans="1:26" ht="165" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="135" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7" t="s">
-        <v>181</v>
+      <c r="B35" s="12">
+        <v>192</v>
+      </c>
+      <c r="C35" s="8">
+        <v>44095</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="F35" s="6">
-        <v>27.164899999999999</v>
+        <v>35.75</v>
       </c>
       <c r="G35" s="6">
-        <v>-80.171800000000005</v>
+        <v>-75.33</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>160</v>
+        <v>110</v>
+      </c>
+      <c r="I35" s="26">
+        <v>41007</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>161</v>
+      <c r="K35" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>41</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>182</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="R35" s="34"/>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
       <c r="U35" s="28"/>
@@ -3650,503 +3644,131 @@
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
     </row>
-    <row r="36" spans="1:26" ht="165" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="135" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7" t="s">
-        <v>184</v>
+      <c r="B36" s="12">
+        <v>243</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44086</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="F36" s="6">
-        <v>27.21</v>
+        <v>36.001300000000001</v>
       </c>
       <c r="G36" s="6">
-        <v>-80.269199999999998</v>
+        <v>-75.421000000000006</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>160</v>
+        <v>110</v>
+      </c>
+      <c r="I36" s="35">
+        <v>43350</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L36" s="5" t="s">
+      <c r="K36" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>162</v>
+      <c r="M36" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="R36" s="36"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" ht="165" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="135" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7" t="s">
-        <v>188</v>
+      <c r="B37" s="12">
+        <v>250</v>
+      </c>
+      <c r="C37" s="6">
+        <v>41120</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" s="6">
-        <v>27.187799999999999</v>
-      </c>
-      <c r="G37" s="6">
-        <v>-80.264200000000002</v>
+        <v>109</v>
+      </c>
+      <c r="F37" s="38">
+        <f>35+(15.555/60)</f>
+        <v>35.259250000000002</v>
+      </c>
+      <c r="G37" s="38">
+        <f>-1*(75+(17.166/60))</f>
+        <v>-75.286100000000005</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>160</v>
+        <v>110</v>
+      </c>
+      <c r="I37" s="26">
+        <v>44410</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>162</v>
+      <c r="M37" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="R37" s="27"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
-    </row>
-    <row r="38" spans="1:26" ht="165" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="6">
-        <v>27.2089</v>
-      </c>
-      <c r="G38" s="6">
-        <v>-80.248000000000005</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-    </row>
-    <row r="39" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="6">
-        <v>27.1142</v>
-      </c>
-      <c r="G39" s="6">
-        <v>-80.282899999999998</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-    </row>
-    <row r="40" spans="1:26" ht="135" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="12">
-        <v>192</v>
-      </c>
-      <c r="C40" s="8">
-        <v>44095</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="6">
-        <v>35.75</v>
-      </c>
-      <c r="G40" s="6">
-        <v>-75.33</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="26">
-        <v>41007</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R40" s="34"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-    </row>
-    <row r="41" spans="1:26" ht="135" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="12">
-        <v>243</v>
-      </c>
-      <c r="C41" s="6">
-        <v>44086</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="6">
-        <v>36.001300000000001</v>
-      </c>
-      <c r="G41" s="6">
-        <v>-75.421000000000006</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="35">
-        <v>43350</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R41" s="36"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-    </row>
-    <row r="42" spans="1:26" ht="135" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="12">
-        <v>250</v>
-      </c>
-      <c r="C42" s="6">
-        <v>41120</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="38">
-        <f>35+(15.555/60)</f>
-        <v>35.259250000000002</v>
-      </c>
-      <c r="G42" s="38">
-        <f>-1*(75+(17.166/60))</f>
-        <v>-75.286100000000005</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="26">
-        <v>44410</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R42" s="27"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-    </row>
-    <row r="43" spans="1:26" ht="135" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="12">
-        <v>560</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F43" s="38">
-        <v>35.912033000000001</v>
-      </c>
-      <c r="G43" s="38">
-        <v>-75.593316999999999</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" s="26">
-        <v>44072</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4155,15 +3777,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2858CE-4F55-4843-ABC7-AFBB68D1961D}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="240" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4226,6 +3868,384 @@
       <c r="X1" s="61"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6">
+        <v>27.21</v>
+      </c>
+      <c r="G2" s="8">
+        <v>-82.82</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="24">
+        <v>35989</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+    </row>
+    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="6">
+        <v>27.29</v>
+      </c>
+      <c r="G3" s="8">
+        <v>-82.63</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="24">
+        <v>35989</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+    </row>
+    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="17">
+        <v>24.6172</v>
+      </c>
+      <c r="G4" s="19">
+        <v>-82.724299999999999</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="25">
+        <v>37883</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="10">
+        <v>32.753340000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-79.898979999999995</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="26">
+        <v>44034</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="6">
+        <v>27.839099999999998</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-80.470799999999997</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12">
+        <v>560</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="38">
+        <v>35.912033000000001</v>
+      </c>
+      <c r="G7" s="38">
+        <v>-75.593316999999999</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="26">
+        <v>44072</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
